--- a/biology/Zoologie/Brooks_Island/Brooks_Island.xlsx
+++ b/biology/Zoologie/Brooks_Island/Brooks_Island.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brooks Island est une île de la baie de San Francisco, située au sud du port de Richmond.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île a une superficie de 30 ha, pour une longueur maximum de 3 km. Elle s'élève à 49 m au-dessus du niveau de la mer.
 </t>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'île a été achetée par une entreprise de construction en 1920, et a été utilisée comme carrière. Elle est protégée depuis 1968[1]. Les colonies d'oiseaux sont étudiées par les biologistes de l'Université de l'Oregon depuis 2003[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'île a été achetée par une entreprise de construction en 1920, et a été utilisée comme carrière. Elle est protégée depuis 1968. Les colonies d'oiseaux sont étudiées par les biologistes de l'Université de l'Oregon depuis 2003.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brooks Island héberge de nombreuses espèces d'oiseaux dont des hérons et des aigrettes. Certaines parties de l'île sont interdites aux visiteurs en tant que site de reproduction.
-Plus de 220 espèces de lépidoptères y ont été recensées[1].
+Plus de 220 espèces de lépidoptères y ont été recensées.
 </t>
         </is>
       </c>
